--- a/HOTEL MANAGEMENT APIS.xlsx
+++ b/HOTEL MANAGEMENT APIS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leirbag\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leirbag\Documents\precast\Hotel_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96AA6E5-078D-4A42-B87E-F8C6A1A7FC26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4D014E-C25C-4DD4-BB46-55CCD5421455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>METHOD</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Authentication route</t>
+  </si>
+  <si>
+    <t>/api/auth</t>
+  </si>
+  <si>
+    <t>get authenticated user</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
   <dimension ref="B3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +648,7 @@
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -679,10 +685,18 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
